--- a/frases.xlsx
+++ b/frases.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,9 +532,6 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -548,9 +545,6 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -573,7 +567,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,7 +639,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -653,7 +647,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -693,7 +687,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,7 +695,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +714,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,7 +722,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,7 +730,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,7 +746,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +762,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +770,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +778,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +786,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +794,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +810,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +818,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +826,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">

--- a/frases.xlsx
+++ b/frases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>frase</t>
   </si>
@@ -34,9 +34,6 @@
     <t>ato</t>
   </si>
   <si>
-    <t>tengo frio</t>
-  </si>
-  <si>
     <t>gatos</t>
   </si>
   <si>
@@ -106,12 +103,6 @@
     <t>flres</t>
   </si>
   <si>
-    <t>flores a</t>
-  </si>
-  <si>
-    <t>azucar flores y muhos colores</t>
-  </si>
-  <si>
     <t>si?</t>
   </si>
   <si>
@@ -139,13 +130,88 @@
     <t>chismesito</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>equivocacion</t>
   </si>
   <si>
     <t>errores</t>
+  </si>
+  <si>
+    <t>el arte</t>
+  </si>
+  <si>
+    <t>artistas</t>
+  </si>
+  <si>
+    <t>estoy con alguien</t>
+  </si>
+  <si>
+    <t>relaciones</t>
+  </si>
+  <si>
+    <t>amistad</t>
+  </si>
+  <si>
+    <t>tengo ganas</t>
+  </si>
+  <si>
+    <t>contenta</t>
+  </si>
+  <si>
+    <t>contento</t>
+  </si>
+  <si>
+    <t>felicidades</t>
+  </si>
+  <si>
+    <t>flores</t>
+  </si>
+  <si>
+    <t>q hago</t>
+  </si>
+  <si>
+    <t>me equivoque</t>
+  </si>
+  <si>
+    <t>que?</t>
+  </si>
+  <si>
+    <t>holis</t>
+  </si>
+  <si>
+    <t>futuro</t>
+  </si>
+  <si>
+    <t>que puedo hacer?</t>
+  </si>
+  <si>
+    <t>no se que hago</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nos vamos?</t>
+  </si>
+  <si>
+    <t>me quiero ir</t>
+  </si>
+  <si>
+    <t>MIERDA</t>
+  </si>
+  <si>
+    <t>andate a la mierda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">puta </t>
+  </si>
+  <si>
+    <t>topu</t>
   </si>
 </sst>
 </file>
@@ -485,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,354 +572,539 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
+      <c r="B39">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:B56">
+    <sortCondition ref="B24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>